--- a/Human_Evaluation/Helpers/test_samples_manual_evaluation.xlsx
+++ b/Human_Evaluation/Helpers/test_samples_manual_evaluation.xlsx
@@ -471,20 +471,14 @@
           <t>3243</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Slightly Related</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -498,20 +492,14 @@
           <t>20157</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Strongly Related</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -525,20 +513,14 @@
           <t>25047</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Related</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -552,20 +534,14 @@
           <t>20198</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Slightly Related</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -579,20 +555,14 @@
           <t>14943</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Slightly Related</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -606,20 +576,14 @@
           <t>11686</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Slightly Related</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -633,20 +597,14 @@
           <t>28</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Slightly Related</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -660,20 +618,14 @@
           <t>19975</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Strongly Related</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -687,20 +639,14 @@
           <t>4712</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Strongly Related</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -714,20 +660,14 @@
           <t>2905</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Strongly Related</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
